--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web\excelphp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750DBE9C-A8E6-4B82-8179-D8EAB211B3E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8497CDC-79FB-4DAE-BF22-C8A79A61D523}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empresas" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$F$151</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="431">
   <si>
     <t>Empresa</t>
   </si>
@@ -189,13 +192,1141 @@
   </si>
   <si>
     <t>00018</t>
+  </si>
+  <si>
+    <t>CORPORACIÓN FAVORITA</t>
+  </si>
+  <si>
+    <t>Lorena Leon</t>
+  </si>
+  <si>
+    <t>Fundacion Favorita</t>
+  </si>
+  <si>
+    <t>lleon@favorita.com</t>
+  </si>
+  <si>
+    <t>Ruben Salazar</t>
+  </si>
+  <si>
+    <t>rsalazar@favorita.com</t>
+  </si>
+  <si>
+    <t>María Jose Toro</t>
+  </si>
+  <si>
+    <t>Gerente en comunicación</t>
+  </si>
+  <si>
+    <t>Antonio Mejia</t>
+  </si>
+  <si>
+    <t>Jefe de logistica</t>
+  </si>
+  <si>
+    <t>Karen Alegría*</t>
+  </si>
+  <si>
+    <t>Comunicación CF</t>
+  </si>
+  <si>
+    <t>kalegria@favorita.com</t>
+  </si>
+  <si>
+    <t>REPUBLICA DEL CACAO</t>
+  </si>
+  <si>
+    <t>Alejandra Ortega*</t>
+  </si>
+  <si>
+    <t>Responsable de Sostenibilidaad</t>
+  </si>
+  <si>
+    <t>mariabelen.vallejo@republicadelcacao.pro</t>
+  </si>
+  <si>
+    <t>simon perez</t>
+  </si>
+  <si>
+    <t>sperez@republicadelcacao.com</t>
+  </si>
+  <si>
+    <t>philippe.bongrain</t>
+  </si>
+  <si>
+    <t>philippe.bongrain@republicadelcacao.pro</t>
+  </si>
+  <si>
+    <t>Maria Belen Vallejo*</t>
+  </si>
+  <si>
+    <t>alejandra.ortega@republicadelcacao.pro</t>
+  </si>
+  <si>
+    <t>Magdalena Crespo</t>
+  </si>
+  <si>
+    <t>Daniela Caicedo*</t>
+  </si>
+  <si>
+    <t>Responsabilidad Social</t>
+  </si>
+  <si>
+    <t>daniela.caicedo@kfc.com.ec</t>
+  </si>
+  <si>
+    <t>Javier Cruz</t>
+  </si>
+  <si>
+    <t>Asuntos Corporativos</t>
+  </si>
+  <si>
+    <t>javier.cruz@kfc.com.ec</t>
+  </si>
+  <si>
+    <t>Juan Carlos Serrano</t>
+  </si>
+  <si>
+    <t>Accionista principal</t>
+  </si>
+  <si>
+    <t>PRONACA</t>
+  </si>
+  <si>
+    <t>Xavier Tobar</t>
+  </si>
+  <si>
+    <t>Gerente Sierra Rel. Institucionales</t>
+  </si>
+  <si>
+    <t>xtobar@pronaca.com</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Asistente</t>
+  </si>
+  <si>
+    <t>O998324860</t>
+  </si>
+  <si>
+    <t>diorbe@pronaca.com</t>
+  </si>
+  <si>
+    <t>Juan Pablo Grijalva</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Andres Montenegro*</t>
+  </si>
+  <si>
+    <t>Donaciones</t>
+  </si>
+  <si>
+    <t>Andres Brito</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Sofía Velez</t>
+  </si>
+  <si>
+    <t>svelez@elordeno.com</t>
+  </si>
+  <si>
+    <t>TOSCANA</t>
+  </si>
+  <si>
+    <t>Gloria Iler*</t>
+  </si>
+  <si>
+    <t>Gerente de la Sucursal de Quito</t>
+  </si>
+  <si>
+    <t>giler@sucesores.ec</t>
+  </si>
+  <si>
+    <t>Jheny Aguilar</t>
+  </si>
+  <si>
+    <t>23011024 Ext. 14</t>
+  </si>
+  <si>
+    <t>Sebastian Chiriboga</t>
+  </si>
+  <si>
+    <t>AGROAPOYO</t>
+  </si>
+  <si>
+    <t>Roxana Barba</t>
+  </si>
+  <si>
+    <t>logistica@agroapoyo.com</t>
+  </si>
+  <si>
+    <t>Veronica Oleas*</t>
+  </si>
+  <si>
+    <t>Jefe Comercial</t>
+  </si>
+  <si>
+    <t>comercial@agroapoyo.com</t>
+  </si>
+  <si>
+    <t>María del Carmén Narváez</t>
+  </si>
+  <si>
+    <t>Dueña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(02) 389-6170
+0997504400
+</t>
+  </si>
+  <si>
+    <t>ma.carmen@agroapoyo.com edgar@agroapoyo.com</t>
+  </si>
+  <si>
+    <t>Edison Cachago</t>
+  </si>
+  <si>
+    <t>Jefe de Bodega</t>
+  </si>
+  <si>
+    <t>Tatiana Ardila</t>
+  </si>
+  <si>
+    <t>tatiana.ardila@avianca.com</t>
+  </si>
+  <si>
+    <t>silvya soraya ramirez</t>
+  </si>
+  <si>
+    <t>encargada ciudadania corporativa</t>
+  </si>
+  <si>
+    <t>sylvia.ramirez@avianca.com</t>
+  </si>
+  <si>
+    <t>Cesar Pino</t>
+  </si>
+  <si>
+    <t>cesar.pino@avianca.com</t>
+  </si>
+  <si>
+    <t>Alejandra Cardona</t>
+  </si>
+  <si>
+    <t>alejandra.cardona@avianca.com</t>
+  </si>
+  <si>
+    <t>Ivan Salazar</t>
+  </si>
+  <si>
+    <t>Gerente de Operaciones</t>
+  </si>
+  <si>
+    <t>ivan_salazar@gruposuperior.com</t>
+  </si>
+  <si>
+    <t>Geovana Muñoz</t>
+  </si>
+  <si>
+    <t>Donacio</t>
+  </si>
+  <si>
+    <t>Marie Claude Vergara*</t>
+  </si>
+  <si>
+    <t>Desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>marieclaude_vergara@gruposuperior.com</t>
+  </si>
+  <si>
+    <t>Sebastián López*</t>
+  </si>
+  <si>
+    <t>Asistente de Desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>Santiago Vergara</t>
+  </si>
+  <si>
+    <t>presidente corporativo</t>
+  </si>
+  <si>
+    <t>SWEET AND COFFEE</t>
+  </si>
+  <si>
+    <t>Hugo Lujano</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>0980897905 (No enviar whatsapp)</t>
+  </si>
+  <si>
+    <t>Adriana Mendoza</t>
+  </si>
+  <si>
+    <t>Encargada de entrega</t>
+  </si>
+  <si>
+    <t>Andrea Andrade*</t>
+  </si>
+  <si>
+    <t>marketing@sweetandcoffee.com.ec</t>
+  </si>
+  <si>
+    <t>SUPERMERCADOS SANTA MARIA</t>
+  </si>
+  <si>
+    <t>Gabriel López*</t>
+  </si>
+  <si>
+    <t>Calidad y Ambiente</t>
+  </si>
+  <si>
+    <t>gabriel.lopez@mega-santamaria.com</t>
+  </si>
+  <si>
+    <t>Maria Gabriela*</t>
+  </si>
+  <si>
+    <t>Gestora Ambiental</t>
+  </si>
+  <si>
+    <t>gestionambiental@mega-santamaria.com</t>
+  </si>
+  <si>
+    <t>asistente.inventarioscnd@dislog.com.ec</t>
+  </si>
+  <si>
+    <t>christiam.diaz@dislog.com.ec</t>
+  </si>
+  <si>
+    <t>javier.arias@dislog.com.ec</t>
+  </si>
+  <si>
+    <t>cristian.leon@mega-santamaria.com</t>
+  </si>
+  <si>
+    <t>marco.nunez@dislog.com.ec</t>
+  </si>
+  <si>
+    <t>PRODUCTOS Anny S.A.</t>
+  </si>
+  <si>
+    <t>David Chicaiza*</t>
+  </si>
+  <si>
+    <t>Gerente General</t>
+  </si>
+  <si>
+    <t>productosanny@hotmail.com</t>
+  </si>
+  <si>
+    <t>CLYAN SERVICE WORLD</t>
+  </si>
+  <si>
+    <t>Gustavo Vela*</t>
+  </si>
+  <si>
+    <t>gustavo_vela@hotmail.com</t>
+  </si>
+  <si>
+    <t>MINERVA</t>
+  </si>
+  <si>
+    <t>info@cafeminerva.ec</t>
+  </si>
+  <si>
+    <t>Lorena Fernández*</t>
+  </si>
+  <si>
+    <t>lfernandez@cafeminerva.ec</t>
+  </si>
+  <si>
+    <t>Ibeth Guayasamín</t>
+  </si>
+  <si>
+    <t>098 702 0052</t>
+  </si>
+  <si>
+    <t>VILASECA</t>
+  </si>
+  <si>
+    <t>Mishell Andrade*</t>
+  </si>
+  <si>
+    <t>mandrade@grupovilaseca.com</t>
+  </si>
+  <si>
+    <t>José Yturralde</t>
+  </si>
+  <si>
+    <t>jyturralde@grupovilaseca.com</t>
+  </si>
+  <si>
+    <t>Paola Hernández</t>
+  </si>
+  <si>
+    <t>098 988 4659</t>
+  </si>
+  <si>
+    <t>PRODUTANKAY</t>
+  </si>
+  <si>
+    <t>Dennis Brito*</t>
+  </si>
+  <si>
+    <t>Gerente*</t>
+  </si>
+  <si>
+    <t>dbrito@golden.ec</t>
+  </si>
+  <si>
+    <t>AGRODELY</t>
+  </si>
+  <si>
+    <t>David Carrillo*</t>
+  </si>
+  <si>
+    <t>099 832 2484</t>
+  </si>
+  <si>
+    <t>dcarrillo@agrodely.com</t>
+  </si>
+  <si>
+    <t>AMATI - GRAMOLINO</t>
+  </si>
+  <si>
+    <t>Carla Novoa Moreno</t>
+  </si>
+  <si>
+    <t>carlanovoamoreno@gmail.com</t>
+  </si>
+  <si>
+    <t>CHEVY PLAN</t>
+  </si>
+  <si>
+    <t>Paulina Llongo*</t>
+  </si>
+  <si>
+    <t>098 462 1222</t>
+  </si>
+  <si>
+    <t>cristina.llongo@chevyplan.com.ec</t>
+  </si>
+  <si>
+    <t>ALIMEC S.A</t>
+  </si>
+  <si>
+    <t>Sandra Sanmartin*</t>
+  </si>
+  <si>
+    <t>098 757 4212</t>
+  </si>
+  <si>
+    <t>ssanmartin@alimec.com.ec</t>
+  </si>
+  <si>
+    <t>María Dolores Donoso</t>
+  </si>
+  <si>
+    <t>Jefe de talento humano</t>
+  </si>
+  <si>
+    <t>mdonoso@alimec.com.ec</t>
+  </si>
+  <si>
+    <t>ALPINA</t>
+  </si>
+  <si>
+    <t>Juan Pinto</t>
+  </si>
+  <si>
+    <t>98 700 3023</t>
+  </si>
+  <si>
+    <t>juan.pinto@alpinaecuador.com</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>natalia.triana@alpina.com</t>
+  </si>
+  <si>
+    <t>Ana Jurado</t>
+  </si>
+  <si>
+    <t>099 368 9768</t>
+  </si>
+  <si>
+    <t>ana.jurado@alpina.com</t>
+  </si>
+  <si>
+    <t>ana.jurado@alpinaecuador.com</t>
+  </si>
+  <si>
+    <t>Ruben Mendoza</t>
+  </si>
+  <si>
+    <t>098 350 8536</t>
+  </si>
+  <si>
+    <t>ruben.mendoza@alpinaecuador.com</t>
+  </si>
+  <si>
+    <t>HORTANA</t>
+  </si>
+  <si>
+    <t>Gabriela Gracia</t>
+  </si>
+  <si>
+    <t>gabriela.garcia@aleproca.com</t>
+  </si>
+  <si>
+    <t>Rafael Aguilar</t>
+  </si>
+  <si>
+    <t>rafael.aguilar@aleproca.com</t>
+  </si>
+  <si>
+    <t>CRICK</t>
+  </si>
+  <si>
+    <t>Frsncisca Castellano</t>
+  </si>
+  <si>
+    <t>099 404 3338</t>
+  </si>
+  <si>
+    <t>EMBUTSER</t>
+  </si>
+  <si>
+    <t>Maria Goyes*</t>
+  </si>
+  <si>
+    <t>098 926 6000</t>
+  </si>
+  <si>
+    <t>maria.goyes@embutser.com.ec</t>
+  </si>
+  <si>
+    <t>Fundacion Museo de la Ciudad</t>
+  </si>
+  <si>
+    <t>Veronica Hidalgo</t>
+  </si>
+  <si>
+    <t>099 874 5218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vhidalgo.cultura@gmail.com
+</t>
+  </si>
+  <si>
+    <t>Sebastían Chiriboga</t>
+  </si>
+  <si>
+    <t>099 254 2655</t>
+  </si>
+  <si>
+    <t>Difare</t>
+  </si>
+  <si>
+    <t>Ana Moreno</t>
+  </si>
+  <si>
+    <t>Asistente de gerencia</t>
+  </si>
+  <si>
+    <t>Sylvia Banda</t>
+  </si>
+  <si>
+    <t>099 719 4561</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Tipo-Donante</t>
+  </si>
+  <si>
+    <t>Beatriz Moreno*</t>
+  </si>
+  <si>
+    <t>mmoreno@moderna.com.ec</t>
+  </si>
+  <si>
+    <t>Mariela Gomez</t>
+  </si>
+  <si>
+    <t>Directora de Responsabilidad Social Empresarial</t>
+  </si>
+  <si>
+    <t>Elsy Neira</t>
+  </si>
+  <si>
+    <t>Asistente de Responsabilid Social</t>
+  </si>
+  <si>
+    <t>Maria Goyez*</t>
+  </si>
+  <si>
+    <t>Bayardo</t>
+  </si>
+  <si>
+    <t>Edgar Cevallos</t>
+  </si>
+  <si>
+    <t>edgar.goyes@embutser.com.ec</t>
+  </si>
+  <si>
+    <t>CORDIALSA S.A.</t>
+  </si>
+  <si>
+    <t>Jhoana Jimenez*</t>
+  </si>
+  <si>
+    <t>Jefe Responsabilidad Social</t>
+  </si>
+  <si>
+    <t>jjimenez@cordialsa.com.ec</t>
+  </si>
+  <si>
+    <t>Henry Pinzon</t>
+  </si>
+  <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Sandra SanMartin</t>
+  </si>
+  <si>
+    <t>smsanmartin@cordialsa.com.ec</t>
+  </si>
+  <si>
+    <t>Miguel pacheco</t>
+  </si>
+  <si>
+    <t>ALIBÚ</t>
+  </si>
+  <si>
+    <t>Carolina Naranjo</t>
+  </si>
+  <si>
+    <t>carolina.naranjo@alibuecuador.com</t>
+  </si>
+  <si>
+    <t>BASESURCORP S.A (DEL SUR)</t>
+  </si>
+  <si>
+    <t>Caterina Delfini</t>
+  </si>
+  <si>
+    <t>Gerente financiera</t>
+  </si>
+  <si>
+    <t>cdelfini@basesurcorp.com</t>
+  </si>
+  <si>
+    <t>Tania Díaz*</t>
+  </si>
+  <si>
+    <t>Línea empacados</t>
+  </si>
+  <si>
+    <t>tdiaz@basesurcorp.com</t>
+  </si>
+  <si>
+    <t>Contacto 2</t>
+  </si>
+  <si>
+    <t>geovany base sur</t>
+  </si>
+  <si>
+    <t>Mafer Viteri*</t>
+  </si>
+  <si>
+    <t>099 003 1116</t>
+  </si>
+  <si>
+    <t>mviteri@basesurcorp.com</t>
+  </si>
+  <si>
+    <t>Adriana Santos</t>
+  </si>
+  <si>
+    <t>adriana.santos@hiltoncolon.com</t>
+  </si>
+  <si>
+    <t>INCREMAR</t>
+  </si>
+  <si>
+    <t>Sebastian Martinez</t>
+  </si>
+  <si>
+    <t>Gerente de Mercadeo</t>
+  </si>
+  <si>
+    <t>sebastianmartinez@incremar.com</t>
+  </si>
+  <si>
+    <t>Diana Luzuriaga</t>
+  </si>
+  <si>
+    <t>099 324 7324</t>
+  </si>
+  <si>
+    <t>MACDONALD</t>
+  </si>
+  <si>
+    <t>Paola Caicedo</t>
+  </si>
+  <si>
+    <t>Jefa de Cominicaciones</t>
+  </si>
+  <si>
+    <t>paola.caicedo@ec.mcd.com</t>
+  </si>
+  <si>
+    <t>TESALIA S.A</t>
+  </si>
+  <si>
+    <t>Luis Alfredo Quishpe</t>
+  </si>
+  <si>
+    <t>Coordinador de entregas</t>
+  </si>
+  <si>
+    <t>lquishpe@cbc.co</t>
+  </si>
+  <si>
+    <t>Marycruz Ortiz</t>
+  </si>
+  <si>
+    <t>mcortiz@cbc.co</t>
+  </si>
+  <si>
+    <t>DE PRATTI</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>QUICENTRO SUR</t>
+  </si>
+  <si>
+    <t>SAN LUIS</t>
+  </si>
+  <si>
+    <t>QUICENTRO NORTE</t>
+  </si>
+  <si>
+    <t>Violeta Rodríguez</t>
+  </si>
+  <si>
+    <t>violeta.rodriguez@depratti.com.ec</t>
+  </si>
+  <si>
+    <t>ECOCENTRO</t>
+  </si>
+  <si>
+    <t>Erlinda-Preguntar Patty J</t>
+  </si>
+  <si>
+    <t>thorben.knust@emgirs.gob.ec</t>
+  </si>
+  <si>
+    <t>Erlinda Rodriguez*</t>
+  </si>
+  <si>
+    <t>Robert Cumbal*</t>
+  </si>
+  <si>
+    <t>Cristina Vivanco</t>
+  </si>
+  <si>
+    <t>BESTMAR</t>
+  </si>
+  <si>
+    <t>Leticia Medina</t>
+  </si>
+  <si>
+    <t>INALPEV</t>
+  </si>
+  <si>
+    <t>Elsa Chávez</t>
+  </si>
+  <si>
+    <t>M. José Garcia</t>
+  </si>
+  <si>
+    <t>098 849 4125</t>
+  </si>
+  <si>
+    <t>INALPROCES (Kiwa)</t>
+  </si>
+  <si>
+    <t>Ma. José García*</t>
+  </si>
+  <si>
+    <t>comercial</t>
+  </si>
+  <si>
+    <t>comercial@inalproces.com</t>
+  </si>
+  <si>
+    <t>INARZU - ARZU</t>
+  </si>
+  <si>
+    <t>Jaime Arroyo</t>
+  </si>
+  <si>
+    <t>Representante legal</t>
+  </si>
+  <si>
+    <t>jarroyo@arzu-ecuador.com</t>
+  </si>
+  <si>
+    <t>HERBALIFE</t>
+  </si>
+  <si>
+    <t>Samanta Lopez</t>
+  </si>
+  <si>
+    <t>Logistica</t>
+  </si>
+  <si>
+    <t>Paola Piedra*</t>
+  </si>
+  <si>
+    <t>paolapi@herbalife.com</t>
+  </si>
+  <si>
+    <t>ximenat@herbalife.com</t>
+  </si>
+  <si>
+    <t>BOMBAI</t>
+  </si>
+  <si>
+    <t>Vicente Arteaga*</t>
+  </si>
+  <si>
+    <t>vicente.arteaga@bombai.ec</t>
+  </si>
+  <si>
+    <t>Jefa</t>
+  </si>
+  <si>
+    <t>NESTLÉ</t>
+  </si>
+  <si>
+    <t>Mónica Jaramillo*</t>
+  </si>
+  <si>
+    <t>099 522 6647</t>
+  </si>
+  <si>
+    <t>monica.jaramillo@ec.nestle.com</t>
+  </si>
+  <si>
+    <t>Tatiana Meza*</t>
+  </si>
+  <si>
+    <t>tatiana.meza@ec.nestle.com</t>
+  </si>
+  <si>
+    <t>CAFETAL.S.A.</t>
+  </si>
+  <si>
+    <t>Anahi Alvear</t>
+  </si>
+  <si>
+    <t>099 974 7280</t>
+  </si>
+  <si>
+    <t>Melisa</t>
+  </si>
+  <si>
+    <t>098 191 6159</t>
+  </si>
+  <si>
+    <t>HEALTHYFOOD</t>
+  </si>
+  <si>
+    <t>Antonella Mordasini</t>
+  </si>
+  <si>
+    <t>ventas-sales@healthyfood.com.ec</t>
+  </si>
+  <si>
+    <t>LACTALIS</t>
+  </si>
+  <si>
+    <t>Emylia Morejón</t>
+  </si>
+  <si>
+    <t>emilia.morejon@ec.lactalis.com</t>
+  </si>
+  <si>
+    <t>Karla Ortiz</t>
+  </si>
+  <si>
+    <t>098 856 4636</t>
+  </si>
+  <si>
+    <t>DOLCE INCONTRO -KFC</t>
+  </si>
+  <si>
+    <t>Daniela Caicedo</t>
+  </si>
+  <si>
+    <t>Grupo KFC-Conexión</t>
+  </si>
+  <si>
+    <t>TESALIA</t>
+  </si>
+  <si>
+    <t>098 344 9691</t>
+  </si>
+  <si>
+    <t>CERVECERIA NACIONAL</t>
+  </si>
+  <si>
+    <t>Adrian Lovato</t>
+  </si>
+  <si>
+    <t>angie.chuqui@ab-inbev.com</t>
+  </si>
+  <si>
+    <t>Domnique Campaña</t>
+  </si>
+  <si>
+    <t>096 106 5001</t>
+  </si>
+  <si>
+    <t>adrian.lovato@ab-inbev.com</t>
+  </si>
+  <si>
+    <t>PASTELO</t>
+  </si>
+  <si>
+    <t>José Pozo</t>
+  </si>
+  <si>
+    <t>pasteloquito@pastelo.com.ec</t>
+  </si>
+  <si>
+    <t>L'ARTISAN</t>
+  </si>
+  <si>
+    <t>Mariuxi</t>
+  </si>
+  <si>
+    <t>mariuximbaquingo@gmail.com</t>
+  </si>
+  <si>
+    <t>GUIDO LUTUALA</t>
+  </si>
+  <si>
+    <t>Guido Lutuala</t>
+  </si>
+  <si>
+    <t>CRICK´S</t>
+  </si>
+  <si>
+    <t>Francisca Castellanos</t>
+  </si>
+  <si>
+    <t>DARIO OBANDO</t>
+  </si>
+  <si>
+    <t>Dario Obando</t>
+  </si>
+  <si>
+    <t>PEDIDOS YA</t>
+  </si>
+  <si>
+    <t>Elizabeth Carvajal</t>
+  </si>
+  <si>
+    <t>Encargada de bodega</t>
+  </si>
+  <si>
+    <t>099 998 1375</t>
+  </si>
+  <si>
+    <t>Andrés Bárbaro</t>
+  </si>
+  <si>
+    <t>+54 9 3415 48-8060</t>
+  </si>
+  <si>
+    <t>andres.barbaro.ext@pedidosya.com</t>
+  </si>
+  <si>
+    <t>Evander Rafael Panchi</t>
+  </si>
+  <si>
+    <t>evander.panchi@pedidosya.com</t>
+  </si>
+  <si>
+    <t>Marjorie Allauca</t>
+  </si>
+  <si>
+    <t>marjorie.allauca@pedidosya.com</t>
+  </si>
+  <si>
+    <t>John Velez</t>
+  </si>
+  <si>
+    <t>john.velez@pedidosya.com</t>
+  </si>
+  <si>
+    <t>David Andrés Rovayo Almeida</t>
+  </si>
+  <si>
+    <t>david.rovayo@pedidosya.com</t>
+  </si>
+  <si>
+    <t>Anthony Esparza Rivadeneira</t>
+  </si>
+  <si>
+    <t>anthony.esparza.2@pedidosya.com</t>
+  </si>
+  <si>
+    <t>Felipe Neacato</t>
+  </si>
+  <si>
+    <t>felipe.neacato@pedidosya.com</t>
+  </si>
+  <si>
+    <t>Andrea Carrango</t>
+  </si>
+  <si>
+    <t>099 863 1065</t>
+  </si>
+  <si>
+    <t>NIELSEN</t>
+  </si>
+  <si>
+    <t>099 893 8598</t>
+  </si>
+  <si>
+    <t>L'Artisan</t>
+  </si>
+  <si>
+    <t>Mariuxi Panaderia</t>
+  </si>
+  <si>
+    <t>098 344 4332</t>
+  </si>
+  <si>
+    <t>ICHIBAN</t>
+  </si>
+  <si>
+    <t>Carla Toledo</t>
+  </si>
+  <si>
+    <t>098 972 6826</t>
+  </si>
+  <si>
+    <t>Lacteos el Caserio</t>
+  </si>
+  <si>
+    <t>Omar Olivas</t>
+  </si>
+  <si>
+    <t>099 489 3365</t>
+  </si>
+  <si>
+    <t>Alicorp</t>
+  </si>
+  <si>
+    <t>Alvaro Freile</t>
+  </si>
+  <si>
+    <t>098 291 1652</t>
+  </si>
+  <si>
+    <t>Marlene Vasquez</t>
+  </si>
+  <si>
+    <t>099 586 8628</t>
+  </si>
+  <si>
+    <t>Cynthia Guevara Rendon</t>
+  </si>
+  <si>
+    <t>099 965 6193</t>
+  </si>
+  <si>
+    <t>MORDEN TRADE</t>
+  </si>
+  <si>
+    <t>Carolina Chiriboga</t>
+  </si>
+  <si>
+    <t>099 499 0066</t>
+  </si>
+  <si>
+    <t>ABS Company</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>GRUPO KFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL ORDEÑO </t>
+  </si>
+  <si>
+    <t>AVIANCA ECUADOR S.A.</t>
+  </si>
+  <si>
+    <t>CORPORACION SUPERIOR</t>
+  </si>
+  <si>
+    <t>MODERNA ALIMENTOS S.A.</t>
+  </si>
+  <si>
+    <t>EMBUTSER, FEDERER, EL ARTESANO, CASA NOBLE</t>
+  </si>
+  <si>
+    <t>HOTEL HILTON COLON QUITO</t>
+  </si>
+  <si>
+    <t>NIELSEN DEL ECUADOR</t>
+  </si>
+  <si>
+    <t>DNE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -208,16 +1339,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,14 +1374,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +1756,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,33 +2096,3045 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F2906-CA21-401F-ADC8-9CC37B2242AE}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:F301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="5">
+        <v>995653214</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="5">
+        <v>995653214</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5">
+        <v>958815399</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5">
+        <v>986094577</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="5">
+        <v>992642408</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="10">
+        <v>983028138</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="13">
+        <v>983028138</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="16">
+        <v>994059113</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="5">
+        <v>992717019</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="16">
+        <v>999733090</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="5">
+        <v>993708194</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="5">
+        <v>992755310</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="16">
+        <v>22696039</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="16">
+        <v>997025041</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="5">
+        <v>999466433</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="16">
+        <v>981976879</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="5">
+        <v>995065198</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="16">
+        <v>993834013</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="5">
+        <v>984018776</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="5">
+        <v>981144507</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="16">
+        <v>997183988</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="5">
+        <v>983906001</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="16">
+        <v>969266719</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" s="16">
+        <v>984966173</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="16">
+        <v>982276975</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="16">
+        <v>991423343</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E58" s="16">
+        <v>984234455</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="16">
+        <v>995038375</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" s="5">
+        <v>984250122</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="16">
+        <v>986644809</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="16">
+        <v>984676060</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>430</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>430</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E77" s="5">
+        <v>984912935</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>430</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" s="16">
+        <v>989266000</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>430</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E79" s="5">
+        <v>982504111</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>430</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" s="5">
+        <v>999185949</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>430</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" s="16">
+        <v>999666188</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>430</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E82" s="5">
+        <v>994037903</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>430</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="5">
+        <v>987574212</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>430</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="5">
+        <v>990439745</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>430</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" s="16">
+        <v>959055469</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>430</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>430</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>430</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" s="5">
+        <v>979151217</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>430</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="5">
+        <v>982715726</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>430</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>430</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="16">
+        <v>999236924</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>430</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E92" s="16">
+        <v>999227973</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>430</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>430</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" s="16">
+        <v>994441610</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>430</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95" s="16">
+        <v>998229198</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>430</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" s="5">
+        <v>983449691</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>430</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E97" s="16">
+        <v>999536001</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>430</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>430</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>430</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>430</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E101" s="16">
+        <v>998059351</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>430</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E102" s="5">
+        <v>998287176</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>430</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" s="5">
+        <v>982554006</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>430</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E104" s="16">
+        <v>998938598</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>430</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105" s="16">
+        <v>999617205</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>430</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E106" s="16">
+        <v>980217466</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>430</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>430</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E108" s="16">
+        <v>988494125</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>430</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E109" s="16">
+        <v>999821038</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>430</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="16">
+        <v>984234455</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>430</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E111" s="16">
+        <v>990687803</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>430</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E112" s="5">
+        <v>989019797</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>430</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>430</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" s="16">
+        <v>999927240</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>430</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>430</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>430</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>430</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>430</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>430</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E122" s="16">
+        <v>983355893</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>430</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E123" s="16">
+        <v>989067947</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>430</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>430</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>430</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>430</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127" s="16">
+        <v>988906349</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>430</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>430</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E129" s="16">
+        <v>979213066</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>430</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130" s="16">
+        <v>983444332</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>430</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E131" s="16">
+        <v>997324422</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>430</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E132" s="16">
+        <v>994043338</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>430</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E133" s="16">
+        <v>989213084</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>430</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>430</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>430</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>430</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>430</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>430</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>430</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>430</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>430</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>430</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>430</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>430</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>430</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>430</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>430</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>430</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>430</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>430</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F151" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>